--- a/biology/Médecine/Canal_inguinal/Canal_inguinal.xlsx
+++ b/biology/Médecine/Canal_inguinal/Canal_inguinal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canal inguinal est en anatomie humaine l'un des points faibles de la paroi abdominale. Il s'agit d'un passage à travers la cavité abdominale qui laisse passer le cordon testiculaire chez l'homme et le ligament rond de l'utérus chez la femme. 
 </t>
@@ -511,7 +523,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'orifice superficiel du canal inguinal est formé par la division en deux tendons (latéral et médial) de la terminaison du muscle oblique externe de l'abdomen, qui forment les limites latérale et crâniale de l'orifice. La limite caudale est soit constituée du pubis soit du tendon croisé du muscle oblique externe controlatéral.
 La seconde partie de ce canal est formé par le tendon conjoint qui forme un autre avant de s'insérer sur le pubis, laissant ainsi un passage, délimité caudalement par le ligament inguinal.
